--- a/MS Projects/Giant Ragweed Resistance/Data Analysis - POST/RAW SURV_POPxHERBxRATE.xlsx
+++ b/MS Projects/Giant Ragweed Resistance/Data Analysis - POST/RAW SURV_POPxHERBxRATE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/MS Projects/Giant Ragweed Resistance/Data Analysis - POST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_939ACCE086E1BB4B57638477EEF08DAA0B1EAE05" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AD5EF73A-C894-4E58-ADD3-959145E741D4}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_939ACCE086E1BB4B57638477EEF08DAA0B1EAE05" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{061128D1-F7E8-4B48-975E-31729B42B1D2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,25 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$H$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$J$53</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="24">
   <si>
     <t>pop</t>
   </si>
@@ -89,6 +100,12 @@
   </si>
   <si>
     <t>ATBP</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>LS</t>
   </si>
 </sst>
 </file>
@@ -422,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,10 +451,12 @@
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,10 +479,16 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -486,10 +511,18 @@
         <v>0.125</v>
       </c>
       <c r="H2">
+        <f>E2-G2</f>
+        <v>0.75</v>
+      </c>
+      <c r="I2">
+        <f>E2+G2</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -512,10 +545,18 @@
         <v>0.24494897427831799</v>
       </c>
       <c r="H3">
+        <f t="shared" ref="H3:H53" si="0">E3-G3</f>
+        <v>0.15505102572168203</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I53" si="1">E3+G3</f>
+        <v>0.64494897427831799</v>
+      </c>
+      <c r="J3">
         <v>0.480091167635531</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -538,10 +579,18 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -564,10 +613,18 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -590,10 +647,18 @@
         <v>0.14698618394803301</v>
       </c>
       <c r="H6">
+        <f t="shared" si="0"/>
+        <v>7.5236038274188982E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.36920840617025497</v>
+      </c>
+      <c r="J6">
         <v>0.28808762676312399</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -616,10 +681,18 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -642,10 +715,18 @@
         <v>0.119678388469542</v>
       </c>
       <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.19282161153045801</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.43217838846954199</v>
+      </c>
+      <c r="J8">
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -668,10 +749,18 @@
         <v>0.125</v>
       </c>
       <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="J9">
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -694,10 +783,18 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -720,10 +817,18 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -746,10 +851,18 @@
         <v>0.125</v>
       </c>
       <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="J12">
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -772,10 +885,18 @@
         <v>6.25E-2</v>
       </c>
       <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="J13">
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -798,10 +919,18 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -824,10 +953,18 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -850,10 +987,18 @@
         <v>0.15212000482437699</v>
       </c>
       <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0.48424363153925903</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0.78848364118801295</v>
+      </c>
+      <c r="J16">
         <v>0.298149730783839</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -876,10 +1021,18 @@
         <v>0.12196734422726099</v>
       </c>
       <c r="H17">
+        <f t="shared" si="0"/>
+        <v>5.9850837590920997E-2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0.30378552604544296</v>
+      </c>
+      <c r="J17">
         <v>0.23905160197543099</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -902,10 +1055,18 @@
         <v>9.0909090909090898E-2</v>
       </c>
       <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="J18">
         <v>0.178178544049096</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -928,10 +1089,18 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -954,10 +1123,18 @@
         <v>6.25E-2</v>
       </c>
       <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J20">
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -980,10 +1157,18 @@
         <v>0.125</v>
       </c>
       <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="J21">
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1006,10 +1191,18 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1032,10 +1225,18 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1058,10 +1259,18 @@
         <v>0.13055824196677299</v>
       </c>
       <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0.11944175803322701</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>0.38055824196677301</v>
+      </c>
+      <c r="J24">
         <v>0.25588945213974201</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1084,10 +1293,18 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1110,10 +1327,18 @@
         <v>0.12808688457449499</v>
       </c>
       <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0.30941311542550498</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0.56558688457449502</v>
+      </c>
+      <c r="J26">
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1136,10 +1361,18 @@
         <v>0.119678388469542</v>
       </c>
       <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0.19282161153045801</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0.43217838846954199</v>
+      </c>
+      <c r="J27">
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1162,10 +1395,18 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1188,10 +1429,18 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1214,10 +1463,18 @@
         <v>0.100778221853732</v>
       </c>
       <c r="H30">
+        <f t="shared" si="0"/>
+        <v>8.6721778146267997E-2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>0.28827822185373198</v>
+      </c>
+      <c r="J30">
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1240,10 +1497,18 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -1266,10 +1531,18 @@
         <v>0.16666666666666699</v>
       </c>
       <c r="H32">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666607</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J32">
         <v>0.32666066409000899</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -1292,10 +1565,18 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="H33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="J33">
         <v>0.65332132818001798</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -1318,10 +1599,18 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -1344,10 +1633,18 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -1370,10 +1667,18 @@
         <v>0.1</v>
       </c>
       <c r="H36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="J36">
         <v>0.19599639845400499</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -1396,10 +1701,18 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -1422,10 +1735,18 @@
         <v>0.125</v>
       </c>
       <c r="H38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="J38">
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -1441,8 +1762,16 @@
       <c r="E39" t="e">
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H39" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I39" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1465,10 +1794,18 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1491,10 +1828,18 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -1517,10 +1862,18 @@
         <v>0.202030508910442</v>
       </c>
       <c r="H42">
+        <f t="shared" si="0"/>
+        <v>0.36939806251812896</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>0.77345908033901289</v>
+      </c>
+      <c r="J42">
         <v>0.395972521242765</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1543,10 +1896,18 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -1569,10 +1930,18 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -1595,10 +1964,18 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -1621,10 +1998,18 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -1647,10 +2032,18 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -1673,10 +2066,18 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -1699,10 +2100,18 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -1725,10 +2134,18 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -1751,10 +2168,18 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -1777,10 +2202,18 @@
         <v>8.5391256382996605E-2</v>
       </c>
       <c r="H52">
+        <f t="shared" si="0"/>
+        <v>3.9608743617003395E-2</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>0.21039125638299661</v>
+      </c>
+      <c r="J52">
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -1803,11 +2236,19 @@
         <v>0</v>
       </c>
       <c r="H53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J53">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H53" xr:uid="{535DE7D4-D507-4CB6-8AB6-D43D8591A35F}"/>
+  <autoFilter ref="A1:J53" xr:uid="{535DE7D4-D507-4CB6-8AB6-D43D8591A35F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
